--- a/ELISAs/IL-1B ELISA.xlsx
+++ b/ELISAs/IL-1B ELISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/ELISAs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{5ABBE3D3-7BFC-476F-BE64-96A676EE1152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E378404F-96B5-425D-8C84-44D77A5F0D84}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{5ABBE3D3-7BFC-476F-BE64-96A676EE1152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B5C3F8-FB52-45F3-9FA1-03D296AF6EA1}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="720" windowWidth="19035" windowHeight="14880" xr2:uid="{8C54BBE6-F77F-4E24-AAA9-5884BF66CF97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C54BBE6-F77F-4E24-AAA9-5884BF66CF97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -182,7 +182,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -251,6 +262,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -1558,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABA463-2987-49C9-AD26-2B7B15662C94}">
   <dimension ref="C1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1758,7 @@
         <v>7.145E-2</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V23" si="0">$N$12*(U3*U3)+$N$13*(U3)+$N$14</f>
+        <f>$N$12*(U3*U3)+$N$13*(U3)+$N$14</f>
         <v>33.879676030064992</v>
       </c>
       <c r="W3">
@@ -1746,15 +1801,15 @@
         <v>0.1265</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T23" si="1">AVERAGE(R4:S4)</f>
+        <f t="shared" ref="T4:T23" si="0">AVERAGE(R4:S4)</f>
         <v>0.12640000000000001</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U23" si="2">T4-$G$20</f>
+        <f t="shared" ref="U4:U23" si="1">T4-$G$20</f>
         <v>4.0000000000000174E-3</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="V3:V23" si="2">$N$12*(U4*U4)+$N$13*(U4)+$N$14</f>
         <v>-6.3471946239999895</v>
       </c>
       <c r="W4">
@@ -1797,15 +1852,15 @@
         <v>0.19259999999999999</v>
       </c>
       <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.15775</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="1"/>
-        <v>0.15775</v>
-      </c>
-      <c r="U5">
+        <v>3.5350000000000006E-2</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="2"/>
-        <v>3.5350000000000006E-2</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
         <v>12.421569438785001</v>
       </c>
       <c r="W5">
@@ -1848,15 +1903,15 @@
         <v>0.22289999999999999</v>
       </c>
       <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0.20479999999999998</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="1"/>
-        <v>0.20479999999999998</v>
-      </c>
-      <c r="U6">
+        <v>8.2399999999999987E-2</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="2"/>
-        <v>8.2399999999999987E-2</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
         <v>40.355766159359987</v>
       </c>
       <c r="W6">
@@ -1899,15 +1954,15 @@
         <v>0.34849999999999998</v>
       </c>
       <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.23529999999999998</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="1"/>
-        <v>0.23529999999999998</v>
-      </c>
-      <c r="U7">
+        <v>0.11289999999999999</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="2"/>
-        <v>0.11289999999999999</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
         <v>58.314021156259983</v>
       </c>
       <c r="W7">
@@ -1947,15 +2002,15 @@
         <v>0.14560000000000001</v>
       </c>
       <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.14485000000000001</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="1"/>
-        <v>0.14485000000000001</v>
-      </c>
-      <c r="U8">
+        <v>2.2450000000000012E-2</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="2"/>
-        <v>2.2450000000000012E-2</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
         <v>4.7136301854650071</v>
       </c>
       <c r="W8">
@@ -1995,15 +2050,15 @@
         <v>0.10050000000000001</v>
       </c>
       <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.13405</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="1"/>
-        <v>0.13405</v>
-      </c>
-      <c r="U9">
+        <v>1.1650000000000008E-2</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="2"/>
-        <v>1.1650000000000008E-2</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
         <v>-1.7557597066149953</v>
       </c>
       <c r="W9">
@@ -2022,15 +2077,15 @@
         <v>0.1661</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.15160000000000001</v>
       </c>
       <c r="U10">
+        <f>T10-$G$20</f>
+        <v>2.9200000000000018E-2</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="2"/>
-        <v>2.9200000000000018E-2</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
         <v>8.7494866870400099</v>
       </c>
       <c r="W10">
@@ -2052,15 +2107,15 @@
         <v>0.1658</v>
       </c>
       <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="1"/>
-        <v>0.15579999999999999</v>
-      </c>
-      <c r="U11">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="2"/>
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="0"/>
         <v>11.25776987816</v>
       </c>
       <c r="W11">
@@ -2100,15 +2155,15 @@
         <v>0.19450000000000001</v>
       </c>
       <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0.15745000000000001</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="1"/>
-        <v>0.15745000000000001</v>
-      </c>
-      <c r="U12">
+        <v>3.5050000000000012E-2</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="2"/>
-        <v>3.5050000000000012E-2</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
         <v>12.242554742465005</v>
       </c>
       <c r="W12">
@@ -2150,15 +2205,15 @@
         <v>0.17349999999999999</v>
       </c>
       <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.17524999999999999</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="1"/>
-        <v>0.17524999999999999</v>
-      </c>
-      <c r="U13">
+        <v>5.2849999999999994E-2</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="2"/>
-        <v>5.2849999999999994E-2</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="0"/>
         <v>22.844339929784994</v>
       </c>
       <c r="W13">
@@ -2200,15 +2255,15 @@
         <v>0.42670000000000002</v>
       </c>
       <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.3332</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="1"/>
-        <v>0.3332</v>
-      </c>
-      <c r="U14">
+        <v>0.21079999999999999</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="2"/>
-        <v>0.21079999999999999</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="0"/>
         <v>115.15993891103997</v>
       </c>
       <c r="W14">
@@ -2244,15 +2299,15 @@
         <v>0.1283</v>
       </c>
       <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0.12819999999999998</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="1"/>
-        <v>0.12819999999999998</v>
-      </c>
-      <c r="U15">
+        <v>5.7999999999999857E-3</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="2"/>
-        <v>5.7999999999999857E-3</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="0"/>
         <v>-5.2661892469600087</v>
       </c>
       <c r="W15">
@@ -2288,15 +2343,15 @@
         <v>0.1434</v>
       </c>
       <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0.13474999999999998</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="1"/>
-        <v>0.13474999999999998</v>
-      </c>
-      <c r="U16">
+        <v>1.2349999999999986E-2</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="2"/>
-        <v>1.2349999999999986E-2</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="0"/>
         <v>-1.3359990618150093</v>
       </c>
       <c r="W16">
@@ -2332,15 +2387,15 @@
         <v>0.17979999999999999</v>
       </c>
       <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0.20334999999999998</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="1"/>
-        <v>0.20334999999999998</v>
-      </c>
-      <c r="U17">
+        <v>8.094999999999998E-2</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="2"/>
-        <v>8.094999999999998E-2</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="0"/>
         <v>39.499075240864983</v>
       </c>
       <c r="W17">
@@ -2376,15 +2431,15 @@
         <v>0.1739</v>
       </c>
       <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0.15504999999999999</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="1"/>
-        <v>0.15504999999999999</v>
-      </c>
-      <c r="U18">
+        <v>3.2649999999999998E-2</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="2"/>
-        <v>3.2649999999999998E-2</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="0"/>
         <v>10.810026249184999</v>
       </c>
       <c r="W18">
@@ -2420,15 +2475,15 @@
         <v>0.1368</v>
       </c>
       <c r="T19">
+        <f t="shared" si="0"/>
+        <v>0.1358</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="1"/>
-        <v>0.1358</v>
-      </c>
-      <c r="U19">
+        <v>1.3400000000000009E-2</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="2"/>
-        <v>1.3400000000000009E-2</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="0"/>
         <v>-0.70647461783999432</v>
       </c>
       <c r="W19">
@@ -2464,15 +2519,15 @@
         <v>0.13320000000000001</v>
       </c>
       <c r="T20">
+        <f t="shared" si="0"/>
+        <v>0.15484999999999999</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="1"/>
-        <v>0.15484999999999999</v>
-      </c>
-      <c r="U20">
+        <v>3.2449999999999993E-2</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="2"/>
-        <v>3.2449999999999993E-2</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="0"/>
         <v>10.690615899464992</v>
       </c>
       <c r="W20">
@@ -2491,15 +2546,15 @@
         <v>0.11550000000000001</v>
       </c>
       <c r="T21">
+        <f t="shared" si="0"/>
+        <v>0.15395</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="1"/>
-        <v>0.15395</v>
-      </c>
-      <c r="U21">
+        <v>3.1550000000000009E-2</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="2"/>
-        <v>3.1550000000000009E-2</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="0"/>
         <v>10.153206545865002</v>
       </c>
       <c r="W21">
@@ -2518,15 +2573,15 @@
         <v>0.14119999999999999</v>
       </c>
       <c r="T22">
+        <f t="shared" si="0"/>
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="1"/>
-        <v>0.15229999999999999</v>
-      </c>
-      <c r="U22">
+        <v>2.9899999999999996E-2</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="2"/>
-        <v>2.9899999999999996E-2</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="0"/>
         <v>9.1676892498599951</v>
       </c>
       <c r="W22">
@@ -2545,15 +2600,15 @@
         <v>0.1807</v>
       </c>
       <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0.18335000000000001</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="1"/>
-        <v>0.18335000000000001</v>
-      </c>
-      <c r="U23">
+        <v>6.0950000000000018E-2</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="2"/>
-        <v>6.0950000000000018E-2</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="0"/>
         <v>27.65544417286501</v>
       </c>
       <c r="W23">
